--- a/2019-01-12 15-08-15_plot_stats/max_num_of_block.xlsx
+++ b/2019-01-12 15-08-15_plot_stats/max_num_of_block.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GitHub\Blockchain-Simulator\2019-01-12 15-08-15_plot_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC57BE1-2A0B-4737-AD5A-B732375EAA17}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FCD1B7-A470-4D4B-8F46-B800B84B713A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="11595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="max_num_of_block" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">max_num_of_block!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">max_num_of_block!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">max_num_of_block!$N$2:$N$15</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">max_num_of_block!$A$2:$A$15</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">max_num_of_block!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">max_num_of_block!$D$2:$D$15</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">max_num_of_block!$G$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">max_num_of_block!$G$2:$G$15</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">max_num_of_block!$J$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">max_num_of_block!$J$2:$J$15</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">max_num_of_block!$M$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">max_num_of_block!$M$2:$M$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">max_num_of_block!$B$2:$B$15</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">max_num_of_block!$P$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">max_num_of_block!$P$2:$P$15</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">max_num_of_block!$E$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">max_num_of_block!$E$2:$E$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">max_num_of_block!$H$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">max_num_of_block!$H$2:$H$15</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">max_num_of_block!$K$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">max_num_of_block!$K$2:$K$15</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">max_num_of_block!$N$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -115,7 +139,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12077,11 +12101,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="N78" sqref="N78"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V66" sqref="V66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
